--- a/Documents/Temporary files/Gloabl - Employee data.xlsx
+++ b/Documents/Temporary files/Gloabl - Employee data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIET\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Innovation\Code2\Documents\Temporary files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
   </bookViews>
   <sheets>
     <sheet name="SearchResult_Student" sheetId="1" r:id="rId1"/>
@@ -6707,37 +6707,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N992" sqref="N992"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6823,7 +6821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>10061334</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>10088826</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>10538294</v>
       </c>
@@ -7081,7 +7079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>10538856</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10539140</v>
       </c>
@@ -7253,7 +7251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>10539464</v>
       </c>
@@ -7339,7 +7337,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>10540911</v>
       </c>
@@ -7425,7 +7423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>10541004</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10568431</v>
       </c>
@@ -7597,7 +7595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10568917</v>
       </c>
@@ -7683,7 +7681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10646902</v>
       </c>
@@ -7769,7 +7767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10690164</v>
       </c>
@@ -7855,7 +7853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10799444</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>10799452</v>
       </c>
@@ -8027,7 +8025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>10800109</v>
       </c>
@@ -8113,7 +8111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>10830703</v>
       </c>
@@ -8199,7 +8197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>10830740</v>
       </c>
@@ -8285,7 +8283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>10830777</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>10830861</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>10870096</v>
       </c>
@@ -8543,7 +8541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>10870698</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>10918871</v>
       </c>
@@ -8715,7 +8713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>10921341</v>
       </c>
@@ -8801,7 +8799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>10948775</v>
       </c>
@@ -8887,7 +8885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>10948777</v>
       </c>
@@ -8973,7 +8971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>10980648</v>
       </c>
@@ -9059,7 +9057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>11007567</v>
       </c>
@@ -9145,7 +9143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>11007568</v>
       </c>
@@ -9231,7 +9229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>11007570</v>
       </c>
@@ -9317,7 +9315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>11007572</v>
       </c>
@@ -9403,7 +9401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>11007573</v>
       </c>
@@ -9489,7 +9487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>11007575</v>
       </c>
@@ -9575,7 +9573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>11012075</v>
       </c>
@@ -9661,7 +9659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>11012078</v>
       </c>
@@ -9747,7 +9745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>11012082</v>
       </c>
@@ -9833,7 +9831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>11025671</v>
       </c>
@@ -9919,7 +9917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>11025674</v>
       </c>
@@ -10005,7 +10003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11025675</v>
       </c>
@@ -10091,7 +10089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>11025676</v>
       </c>
@@ -10177,7 +10175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>11028156</v>
       </c>
@@ -10263,7 +10261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>11028158</v>
       </c>
@@ -10349,7 +10347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>11028179</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>11035759</v>
       </c>
@@ -10521,7 +10519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>11036708</v>
       </c>
@@ -10607,7 +10605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>11036711</v>
       </c>
@@ -10693,7 +10691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11036715</v>
       </c>
@@ -10779,7 +10777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11037678</v>
       </c>
@@ -10865,7 +10863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11054581</v>
       </c>
@@ -10951,7 +10949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>11054991</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>11055192</v>
       </c>
@@ -11123,7 +11121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11055244</v>
       </c>
@@ -11209,7 +11207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>11055260</v>
       </c>
@@ -11295,7 +11293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11055269</v>
       </c>
@@ -11381,7 +11379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>11055280</v>
       </c>
@@ -11467,7 +11465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11055285</v>
       </c>
@@ -11553,7 +11551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>11055286</v>
       </c>
@@ -11639,7 +11637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>11055288</v>
       </c>
@@ -11725,7 +11723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>11055289</v>
       </c>
@@ -11811,7 +11809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>11055290</v>
       </c>
@@ -11897,7 +11895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11055291</v>
       </c>
@@ -11983,7 +11981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>11055292</v>
       </c>
@@ -12069,7 +12067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>11055293</v>
       </c>
@@ -12155,7 +12153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>11055294</v>
       </c>
@@ -12241,7 +12239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>11055295</v>
       </c>
@@ -12327,7 +12325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11055296</v>
       </c>
@@ -12413,7 +12411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>11055297</v>
       </c>
@@ -12499,7 +12497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>11055299</v>
       </c>
@@ -12585,7 +12583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>11055301</v>
       </c>
@@ -12671,7 +12669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>11055303</v>
       </c>
@@ -12757,7 +12755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>11055305</v>
       </c>
@@ -12843,7 +12841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>11055306</v>
       </c>
@@ -12929,7 +12927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>11055307</v>
       </c>
@@ -13015,7 +13013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>11055310</v>
       </c>
@@ -13101,7 +13099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>11055311</v>
       </c>
@@ -13187,7 +13185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>11055313</v>
       </c>
@@ -13273,7 +13271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>11055314</v>
       </c>
@@ -13359,7 +13357,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>11055315</v>
       </c>
@@ -13445,7 +13443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>11055316</v>
       </c>
@@ -13531,7 +13529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11055318</v>
       </c>
@@ -13617,7 +13615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>11055319</v>
       </c>
@@ -13703,7 +13701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>11055321</v>
       </c>
@@ -13789,7 +13787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>11055325</v>
       </c>
@@ -13875,7 +13873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>11055326</v>
       </c>
@@ -13961,7 +13959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>11055327</v>
       </c>
@@ -14047,7 +14045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>11055329</v>
       </c>
@@ -14133,7 +14131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>11055330</v>
       </c>
@@ -14219,7 +14217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>11055331</v>
       </c>
@@ -14305,7 +14303,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>11055332</v>
       </c>
@@ -14391,7 +14389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>11055333</v>
       </c>
@@ -14477,7 +14475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>11055336</v>
       </c>
@@ -14563,7 +14561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>11055339</v>
       </c>
@@ -14649,7 +14647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>11055340</v>
       </c>
@@ -14735,7 +14733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11055342</v>
       </c>
@@ -14821,7 +14819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11055346</v>
       </c>
@@ -14907,7 +14905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>11055348</v>
       </c>
@@ -14993,7 +14991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11055349</v>
       </c>
@@ -15079,7 +15077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>11055352</v>
       </c>
@@ -15165,7 +15163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11055353</v>
       </c>
@@ -15251,7 +15249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11055355</v>
       </c>
@@ -15337,7 +15335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>11055356</v>
       </c>
@@ -15423,7 +15421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11055357</v>
       </c>
@@ -15509,7 +15507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>11055358</v>
       </c>
@@ -15595,7 +15593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>11055363</v>
       </c>
@@ -15681,7 +15679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>11055365</v>
       </c>
@@ -15767,7 +15765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>11055366</v>
       </c>
@@ -15853,7 +15851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>11055367</v>
       </c>
@@ -15939,7 +15937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>11055371</v>
       </c>
@@ -16025,7 +16023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>11055372</v>
       </c>
@@ -16111,7 +16109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>11055374</v>
       </c>
@@ -16197,7 +16195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>11055375</v>
       </c>
@@ -16283,7 +16281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11055378</v>
       </c>
@@ -16369,7 +16367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>11055379</v>
       </c>
@@ -16455,7 +16453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11055380</v>
       </c>
@@ -16541,7 +16539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>11055381</v>
       </c>
@@ -16627,7 +16625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>11055382</v>
       </c>
@@ -16713,7 +16711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>11055383</v>
       </c>
@@ -16799,7 +16797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>11055386</v>
       </c>
@@ -16885,7 +16883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11055388</v>
       </c>
@@ -16971,7 +16969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>11055389</v>
       </c>
@@ -17057,7 +17055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>11055391</v>
       </c>
@@ -17143,7 +17141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>11055392</v>
       </c>
@@ -17229,7 +17227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>11055393</v>
       </c>
@@ -17315,7 +17313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>11055394</v>
       </c>
@@ -17401,7 +17399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11055396</v>
       </c>
@@ -17487,7 +17485,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11055397</v>
       </c>
@@ -17573,7 +17571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>11055399</v>
       </c>
@@ -17659,7 +17657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>11055400</v>
       </c>
@@ -17745,7 +17743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>11055401</v>
       </c>
@@ -17831,7 +17829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>11055403</v>
       </c>
@@ -17917,7 +17915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>11055405</v>
       </c>
@@ -18003,7 +18001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11055406</v>
       </c>
@@ -18089,7 +18087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11055410</v>
       </c>
@@ -18175,7 +18173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11055413</v>
       </c>
@@ -18261,7 +18259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>11055415</v>
       </c>
@@ -18347,7 +18345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>11055416</v>
       </c>
@@ -18433,7 +18431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>11055417</v>
       </c>
@@ -18519,7 +18517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11055418</v>
       </c>
@@ -18605,7 +18603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11055419</v>
       </c>
@@ -18691,7 +18689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>11055420</v>
       </c>
@@ -18777,7 +18775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>11055421</v>
       </c>
@@ -18863,7 +18861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>11055423</v>
       </c>
@@ -18949,7 +18947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>11055424</v>
       </c>
@@ -19035,7 +19033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>11055426</v>
       </c>
@@ -19121,7 +19119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>11055427</v>
       </c>
@@ -19207,7 +19205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>11055428</v>
       </c>
@@ -19293,7 +19291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>11055429</v>
       </c>
@@ -19379,7 +19377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>11055430</v>
       </c>
@@ -19465,7 +19463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>11055431</v>
       </c>
@@ -19551,7 +19549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>11055432</v>
       </c>
@@ -19637,7 +19635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>11055433</v>
       </c>
@@ -19723,7 +19721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>11055434</v>
       </c>
@@ -19809,7 +19807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>11055435</v>
       </c>
@@ -19895,7 +19893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>11055436</v>
       </c>
@@ -19981,7 +19979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>11055437</v>
       </c>
@@ -20067,7 +20065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>11055438</v>
       </c>
@@ -20153,7 +20151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11055441</v>
       </c>
@@ -20239,7 +20237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>11055447</v>
       </c>
@@ -20325,7 +20323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>11055448</v>
       </c>
@@ -20411,7 +20409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>11055449</v>
       </c>
@@ -20497,7 +20495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>11055450</v>
       </c>
@@ -20583,7 +20581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>11055451</v>
       </c>
@@ -20669,7 +20667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>11055452</v>
       </c>
@@ -20755,7 +20753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>11055453</v>
       </c>
@@ -20841,7 +20839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>11055457</v>
       </c>
@@ -20927,7 +20925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>11055458</v>
       </c>
@@ -21013,7 +21011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>11055459</v>
       </c>
@@ -21099,7 +21097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>11055460</v>
       </c>
@@ -21185,7 +21183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>11055461</v>
       </c>
@@ -21271,7 +21269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>11055463</v>
       </c>
@@ -21357,7 +21355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>11055464</v>
       </c>
@@ -21443,7 +21441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>11055470</v>
       </c>
@@ -21529,7 +21527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>11055471</v>
       </c>
@@ -21615,7 +21613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>11055472</v>
       </c>
@@ -21701,7 +21699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>11055474</v>
       </c>
@@ -21787,7 +21785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>11055475</v>
       </c>
@@ -21873,7 +21871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>11055476</v>
       </c>
@@ -21959,7 +21957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>11055479</v>
       </c>
@@ -22045,7 +22043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>11055480</v>
       </c>
@@ -22131,7 +22129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11055481</v>
       </c>
@@ -22217,7 +22215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>11055483</v>
       </c>
@@ -22303,7 +22301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>11055485</v>
       </c>
@@ -22389,7 +22387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>11055487</v>
       </c>
@@ -22475,7 +22473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>11055488</v>
       </c>
@@ -22561,7 +22559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>11055490</v>
       </c>
@@ -22647,7 +22645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>11055491</v>
       </c>
@@ -22733,7 +22731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>11055494</v>
       </c>
@@ -22819,7 +22817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>11055495</v>
       </c>
@@ -22905,7 +22903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>11055496</v>
       </c>
@@ -22991,7 +22989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>11055497</v>
       </c>
@@ -23077,7 +23075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>11055498</v>
       </c>
@@ -23163,7 +23161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>11055499</v>
       </c>
@@ -23249,7 +23247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>11055502</v>
       </c>
@@ -23335,7 +23333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>11055505</v>
       </c>
@@ -23421,7 +23419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>11055506</v>
       </c>
@@ -23507,7 +23505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>11055507</v>
       </c>
@@ -23593,7 +23591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>11055508</v>
       </c>
@@ -23679,7 +23677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>11055509</v>
       </c>
@@ -23765,7 +23763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>11055511</v>
       </c>
@@ -23851,7 +23849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>11055512</v>
       </c>
@@ -23937,7 +23935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>11055513</v>
       </c>
@@ -24023,7 +24021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>11055518</v>
       </c>
@@ -24109,7 +24107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>11055521</v>
       </c>
@@ -24195,7 +24193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>11055522</v>
       </c>
@@ -24281,7 +24279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>11055523</v>
       </c>
@@ -24367,7 +24365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>11055524</v>
       </c>
@@ -24453,7 +24451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>11055526</v>
       </c>
@@ -24539,7 +24537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>11055527</v>
       </c>
@@ -24625,7 +24623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>11055528</v>
       </c>
@@ -24711,7 +24709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11055530</v>
       </c>
@@ -24797,7 +24795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>11055531</v>
       </c>
@@ -24883,7 +24881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>11055532</v>
       </c>
@@ -24969,7 +24967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>11055533</v>
       </c>
@@ -25055,7 +25053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>11055534</v>
       </c>
@@ -25141,7 +25139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>11055535</v>
       </c>
@@ -25227,7 +25225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>11055536</v>
       </c>
@@ -25313,7 +25311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>11055537</v>
       </c>
@@ -25399,7 +25397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>11055541</v>
       </c>
@@ -25485,7 +25483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>11055543</v>
       </c>
@@ -25571,7 +25569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>11055544</v>
       </c>
@@ -25657,7 +25655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>11055545</v>
       </c>
@@ -25743,7 +25741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>11055546</v>
       </c>
@@ -25829,7 +25827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11055547</v>
       </c>
@@ -25915,7 +25913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11055548</v>
       </c>
@@ -26001,7 +25999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11055550</v>
       </c>
@@ -26087,7 +26085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>11055551</v>
       </c>
@@ -26173,7 +26171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>11055552</v>
       </c>
@@ -26259,7 +26257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>11055555</v>
       </c>
@@ -26345,7 +26343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>11055556</v>
       </c>
@@ -26431,7 +26429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>11055558</v>
       </c>
@@ -26517,7 +26515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>11055560</v>
       </c>
@@ -26603,7 +26601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>11055561</v>
       </c>
@@ -26689,7 +26687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>11055562</v>
       </c>
@@ -26775,7 +26773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>11055564</v>
       </c>
@@ -26861,7 +26859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>11055565</v>
       </c>
@@ -26947,7 +26945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>11055568</v>
       </c>
@@ -27033,7 +27031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>11055572</v>
       </c>
@@ -27119,7 +27117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>11055573</v>
       </c>
@@ -27205,7 +27203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>11055574</v>
       </c>
@@ -27291,7 +27289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11055575</v>
       </c>
@@ -27377,7 +27375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>11055577</v>
       </c>
@@ -27463,7 +27461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>11055579</v>
       </c>
@@ -27549,7 +27547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>11055580</v>
       </c>
@@ -27635,7 +27633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>11055581</v>
       </c>
@@ -27721,7 +27719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>11055582</v>
       </c>
@@ -27807,7 +27805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>11055584</v>
       </c>
@@ -27893,7 +27891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>11055587</v>
       </c>
@@ -27979,7 +27977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>11055588</v>
       </c>
@@ -28065,7 +28063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>11055590</v>
       </c>
@@ -28151,7 +28149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>11055591</v>
       </c>
@@ -28237,7 +28235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>11055592</v>
       </c>
@@ -28323,7 +28321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>11055594</v>
       </c>
@@ -28409,7 +28407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>11055596</v>
       </c>
@@ -28495,7 +28493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>11055597</v>
       </c>
@@ -28581,7 +28579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11055598</v>
       </c>
@@ -28667,7 +28665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>11055601</v>
       </c>
@@ -28753,7 +28751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>11055602</v>
       </c>
@@ -28839,7 +28837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>11055603</v>
       </c>
@@ -28925,7 +28923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>11055604</v>
       </c>
@@ -29011,7 +29009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>11055605</v>
       </c>
@@ -29097,7 +29095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>11055607</v>
       </c>
@@ -29183,7 +29181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>11055609</v>
       </c>
@@ -29269,7 +29267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>11055610</v>
       </c>
@@ -29355,7 +29353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>11055613</v>
       </c>
@@ -29441,7 +29439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>11055614</v>
       </c>
@@ -29527,7 +29525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>11055615</v>
       </c>
@@ -29613,7 +29611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>11055616</v>
       </c>
@@ -29699,7 +29697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>11055617</v>
       </c>
@@ -29785,7 +29783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>11055618</v>
       </c>
@@ -29871,7 +29869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>11055619</v>
       </c>
@@ -29957,7 +29955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>11055621</v>
       </c>
@@ -30043,7 +30041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>11055622</v>
       </c>
@@ -30129,7 +30127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>11055623</v>
       </c>
@@ -30215,7 +30213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>11055624</v>
       </c>
@@ -30301,7 +30299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>11055626</v>
       </c>
@@ -30387,7 +30385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>11055627</v>
       </c>
@@ -30473,7 +30471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>11055629</v>
       </c>
@@ -30559,7 +30557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>11055632</v>
       </c>
@@ -30645,7 +30643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>11055633</v>
       </c>
@@ -30731,7 +30729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>11055634</v>
       </c>
@@ -30817,7 +30815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>11055635</v>
       </c>
@@ -30903,7 +30901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>11055636</v>
       </c>
@@ -30989,7 +30987,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>11055638</v>
       </c>
@@ -31075,7 +31073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>11055639</v>
       </c>
@@ -31161,7 +31159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>11055640</v>
       </c>
@@ -31247,7 +31245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>11055641</v>
       </c>
@@ -31333,7 +31331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>11055642</v>
       </c>
@@ -31419,7 +31417,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>11055644</v>
       </c>
@@ -31505,7 +31503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>11055645</v>
       </c>
@@ -31591,7 +31589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>11055646</v>
       </c>
@@ -31677,7 +31675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>11055647</v>
       </c>
@@ -31763,7 +31761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>11055648</v>
       </c>
@@ -31849,7 +31847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>11055650</v>
       </c>
@@ -31935,7 +31933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>11055651</v>
       </c>
@@ -32021,7 +32019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>11055652</v>
       </c>
@@ -32107,7 +32105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>11055653</v>
       </c>
@@ -32193,7 +32191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>11055654</v>
       </c>
@@ -32279,7 +32277,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>11055658</v>
       </c>
@@ -32365,7 +32363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>11055659</v>
       </c>
@@ -32451,7 +32449,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>11055660</v>
       </c>
@@ -32537,7 +32535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>11055661</v>
       </c>
@@ -32623,7 +32621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>11055662</v>
       </c>
@@ -32709,7 +32707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>11055665</v>
       </c>
@@ -32795,7 +32793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>11055667</v>
       </c>
@@ -32881,7 +32879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>11055668</v>
       </c>
@@ -32967,7 +32965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>11055669</v>
       </c>
@@ -33053,7 +33051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>11055673</v>
       </c>
@@ -33139,7 +33137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>11055674</v>
       </c>
@@ -33225,7 +33223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>11055675</v>
       </c>
@@ -33311,7 +33309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>11055680</v>
       </c>
@@ -33397,7 +33395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>11055681</v>
       </c>
@@ -33483,7 +33481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>11055682</v>
       </c>
@@ -33569,7 +33567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>11055683</v>
       </c>
@@ -33655,7 +33653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>11055684</v>
       </c>
@@ -33741,7 +33739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>11055685</v>
       </c>
@@ -33827,7 +33825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>11055689</v>
       </c>
@@ -33913,7 +33911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>11055690</v>
       </c>
@@ -33999,7 +33997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>11055691</v>
       </c>
@@ -34085,7 +34083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>11055692</v>
       </c>
@@ -34171,7 +34169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>11055694</v>
       </c>
@@ -34257,7 +34255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>11055697</v>
       </c>
@@ -34343,7 +34341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>11055698</v>
       </c>
@@ -34429,7 +34427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>11055699</v>
       </c>
@@ -34515,7 +34513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>11055700</v>
       </c>
@@ -34601,7 +34599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>11055702</v>
       </c>
@@ -34687,7 +34685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>11055703</v>
       </c>
@@ -34773,7 +34771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>11055704</v>
       </c>
@@ -34859,7 +34857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>11055705</v>
       </c>
@@ -34945,7 +34943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>11055706</v>
       </c>
@@ -35031,7 +35029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>11055707</v>
       </c>
@@ -35117,7 +35115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>11055709</v>
       </c>
@@ -35203,7 +35201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>11055710</v>
       </c>
@@ -35289,7 +35287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>11055711</v>
       </c>
@@ -35375,7 +35373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>11055712</v>
       </c>
@@ -35461,7 +35459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>11055714</v>
       </c>
@@ -35547,7 +35545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>11055715</v>
       </c>
@@ -35633,7 +35631,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>11055716</v>
       </c>
@@ -35719,7 +35717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>11055717</v>
       </c>
@@ -35805,7 +35803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>11055718</v>
       </c>
@@ -35891,7 +35889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>11055722</v>
       </c>
@@ -35977,7 +35975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>11055723</v>
       </c>
@@ -36063,7 +36061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>11055725</v>
       </c>
@@ -36149,7 +36147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>11055727</v>
       </c>
@@ -36235,7 +36233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>11055729</v>
       </c>
@@ -36321,7 +36319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>11055730</v>
       </c>
@@ -36407,7 +36405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>11055731</v>
       </c>
@@ -36493,7 +36491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>11055732</v>
       </c>
@@ -36579,7 +36577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>11055733</v>
       </c>
@@ -36665,7 +36663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>11055734</v>
       </c>
@@ -36751,7 +36749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>11055736</v>
       </c>
@@ -36837,7 +36835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>11055737</v>
       </c>
@@ -36923,7 +36921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>11055740</v>
       </c>
@@ -37009,7 +37007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>11055741</v>
       </c>
@@ -37095,7 +37093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>11055742</v>
       </c>
@@ -37181,7 +37179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>11055743</v>
       </c>
@@ -37267,7 +37265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>11055744</v>
       </c>
@@ -37353,7 +37351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>11055745</v>
       </c>
@@ -37439,7 +37437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>11055747</v>
       </c>
@@ -37525,7 +37523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>11055748</v>
       </c>
@@ -37611,7 +37609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>11055751</v>
       </c>
@@ -37697,7 +37695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>11055752</v>
       </c>
@@ -37783,7 +37781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>11055753</v>
       </c>
@@ -37869,7 +37867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>11055754</v>
       </c>
@@ -37955,7 +37953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>11055755</v>
       </c>
@@ -38041,7 +38039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>11055756</v>
       </c>
@@ -38127,7 +38125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>11055758</v>
       </c>
@@ -38213,7 +38211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>11055760</v>
       </c>
@@ -38299,7 +38297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>11055762</v>
       </c>
@@ -38385,7 +38383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>11055764</v>
       </c>
@@ -38471,7 +38469,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>11055765</v>
       </c>
@@ -38557,7 +38555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>11055766</v>
       </c>
@@ -38643,7 +38641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>11055767</v>
       </c>
@@ -38729,7 +38727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>11055768</v>
       </c>
@@ -38815,7 +38813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>11055769</v>
       </c>
@@ -38901,7 +38899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>11055770</v>
       </c>
@@ -38987,7 +38985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>11055771</v>
       </c>
@@ -39073,7 +39071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>11055772</v>
       </c>
@@ -39159,7 +39157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>11055774</v>
       </c>
@@ -39245,7 +39243,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>11055775</v>
       </c>
@@ -39331,7 +39329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>11055776</v>
       </c>
@@ -39417,7 +39415,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>11055778</v>
       </c>
@@ -39503,7 +39501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>11055780</v>
       </c>
@@ -39589,7 +39587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>11055781</v>
       </c>
@@ -39675,7 +39673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>11055782</v>
       </c>
@@ -39761,7 +39759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>11055783</v>
       </c>
@@ -39847,7 +39845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>11055784</v>
       </c>
@@ -39933,7 +39931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>11055785</v>
       </c>
@@ -40019,7 +40017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>11055786</v>
       </c>
@@ -40105,7 +40103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>11055787</v>
       </c>
@@ -40191,7 +40189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>11055788</v>
       </c>
@@ -40277,7 +40275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>11055790</v>
       </c>
@@ -40363,7 +40361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>11055791</v>
       </c>
@@ -40449,7 +40447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>11055792</v>
       </c>
@@ -40535,7 +40533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>11055793</v>
       </c>
@@ -40621,7 +40619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>11055794</v>
       </c>
@@ -40707,7 +40705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>11055795</v>
       </c>
@@ -40793,7 +40791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>11055796</v>
       </c>
@@ -40879,7 +40877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>11055797</v>
       </c>
@@ -40965,7 +40963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>11055800</v>
       </c>
@@ -41051,7 +41049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>11055802</v>
       </c>
@@ -41137,7 +41135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>11055805</v>
       </c>
@@ -41223,7 +41221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>11055806</v>
       </c>
@@ -41309,7 +41307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>11055807</v>
       </c>
@@ -41395,7 +41393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>11055808</v>
       </c>
@@ -41481,7 +41479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>11055809</v>
       </c>
@@ -41567,7 +41565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>11055810</v>
       </c>
@@ -41653,7 +41651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>11055813</v>
       </c>
@@ -41739,7 +41737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>11055814</v>
       </c>
@@ -41825,7 +41823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>11055815</v>
       </c>
@@ -41911,7 +41909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>11055817</v>
       </c>
@@ -41997,7 +41995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>11055818</v>
       </c>
@@ -42083,7 +42081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>11055819</v>
       </c>
@@ -42169,7 +42167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>11055820</v>
       </c>
@@ -42255,7 +42253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>11055821</v>
       </c>
@@ -42341,7 +42339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>11055823</v>
       </c>
@@ -42427,7 +42425,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>11055824</v>
       </c>
@@ -42513,7 +42511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>11055825</v>
       </c>
@@ -42599,7 +42597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>11055828</v>
       </c>
@@ -42685,7 +42683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>11055829</v>
       </c>
@@ -42771,7 +42769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>11055830</v>
       </c>
@@ -42857,7 +42855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>11055834</v>
       </c>
@@ -42943,7 +42941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>11055835</v>
       </c>
@@ -43029,7 +43027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>11055836</v>
       </c>
@@ -43115,7 +43113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>11055837</v>
       </c>
@@ -43201,7 +43199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>11055839</v>
       </c>
@@ -43287,7 +43285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>11055841</v>
       </c>
@@ -43373,7 +43371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>11055843</v>
       </c>
@@ -43459,7 +43457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>11055844</v>
       </c>
@@ -43545,7 +43543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>11055845</v>
       </c>
@@ -43631,7 +43629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>11055847</v>
       </c>
@@ -43717,7 +43715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>11055848</v>
       </c>
@@ -43803,7 +43801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>11055849</v>
       </c>
@@ -43889,7 +43887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>11055850</v>
       </c>
@@ -43975,7 +43973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>11055851</v>
       </c>
@@ -44061,7 +44059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>11055852</v>
       </c>
@@ -44147,7 +44145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>11055853</v>
       </c>
@@ -44233,7 +44231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>11055854</v>
       </c>
@@ -44319,7 +44317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>11055860</v>
       </c>
@@ -44405,7 +44403,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>11055861</v>
       </c>
@@ -44491,7 +44489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>11055863</v>
       </c>
@@ -44577,7 +44575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>11055865</v>
       </c>
@@ -44663,7 +44661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>11055867</v>
       </c>
@@ -44749,7 +44747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>11055868</v>
       </c>
@@ -44835,7 +44833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>11055869</v>
       </c>
@@ -44921,7 +44919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>11055870</v>
       </c>
@@ -45007,7 +45005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>11055871</v>
       </c>
@@ -45093,7 +45091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>11055872</v>
       </c>
@@ -45179,7 +45177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>11055874</v>
       </c>
@@ -45265,7 +45263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>11055875</v>
       </c>
@@ -45351,7 +45349,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>11055877</v>
       </c>
@@ -45437,7 +45435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>11055880</v>
       </c>
@@ -45523,7 +45521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>11055882</v>
       </c>
@@ -45609,7 +45607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>11055883</v>
       </c>
@@ -45695,7 +45693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>11055884</v>
       </c>
@@ -45781,7 +45779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>11055885</v>
       </c>
@@ -45867,7 +45865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>11055886</v>
       </c>
@@ -45953,7 +45951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>11055887</v>
       </c>
@@ -46039,7 +46037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>11055889</v>
       </c>
@@ -46125,7 +46123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>11055890</v>
       </c>
@@ -46211,7 +46209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>11055891</v>
       </c>
@@ -46297,7 +46295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>11055892</v>
       </c>
@@ -46383,7 +46381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>11055894</v>
       </c>
@@ -46469,7 +46467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>11055895</v>
       </c>
@@ -46555,7 +46553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>11055898</v>
       </c>
@@ -46641,7 +46639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="465" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>11055899</v>
       </c>
@@ -46727,7 +46725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="466" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>11055900</v>
       </c>
@@ -46813,7 +46811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>11055901</v>
       </c>
@@ -46899,7 +46897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="468" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>11055902</v>
       </c>
@@ -46985,7 +46983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="469" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>11055903</v>
       </c>
@@ -47071,7 +47069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="470" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>11055905</v>
       </c>
@@ -47157,7 +47155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="471" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>11055906</v>
       </c>
@@ -47243,7 +47241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="472" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>11055907</v>
       </c>
@@ -47329,7 +47327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="473" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>11055908</v>
       </c>
@@ -47415,7 +47413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="474" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>11055910</v>
       </c>
@@ -47501,7 +47499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="475" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>11055911</v>
       </c>
@@ -47587,7 +47585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="476" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>11055912</v>
       </c>
@@ -47673,7 +47671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="477" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>11063677</v>
       </c>
@@ -47759,7 +47757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="478" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>11124829</v>
       </c>
@@ -47845,7 +47843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="479" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>11130799</v>
       </c>
@@ -47931,7 +47929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="480" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>11130802</v>
       </c>
@@ -48017,7 +48015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="481" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>11130805</v>
       </c>
@@ -48103,7 +48101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="482" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>11130808</v>
       </c>
@@ -48189,7 +48187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="483" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>11130809</v>
       </c>
@@ -48275,7 +48273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="484" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>11130810</v>
       </c>
@@ -48361,7 +48359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="485" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>11130811</v>
       </c>
@@ -48447,7 +48445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="486" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>11130814</v>
       </c>
@@ -48533,7 +48531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="487" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>11137191</v>
       </c>
@@ -48619,7 +48617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="488" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>11138663</v>
       </c>
@@ -48705,7 +48703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="489" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>11138669</v>
       </c>
@@ -48791,7 +48789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="490" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>11138672</v>
       </c>
@@ -48877,7 +48875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="491" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>11138703</v>
       </c>
@@ -48963,7 +48961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="492" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>11138705</v>
       </c>
@@ -49049,7 +49047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="493" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>11138707</v>
       </c>
@@ -49135,7 +49133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="494" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>11138711</v>
       </c>
@@ -49221,7 +49219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="495" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>11138712</v>
       </c>
@@ -49307,7 +49305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="496" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>11138714</v>
       </c>
@@ -49393,7 +49391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="497" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>11138715</v>
       </c>
@@ -49479,7 +49477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="498" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>11138716</v>
       </c>
@@ -49565,7 +49563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="499" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>11138721</v>
       </c>
@@ -49651,7 +49649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="500" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>11138722</v>
       </c>
@@ -49737,7 +49735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="501" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>11138724</v>
       </c>
@@ -49823,7 +49821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="502" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>11140017</v>
       </c>
@@ -49909,7 +49907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="503" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>11140018</v>
       </c>
@@ -49995,7 +49993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="504" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>11141007</v>
       </c>
@@ -50081,7 +50079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="505" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>11141015</v>
       </c>
@@ -50167,7 +50165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>11141019</v>
       </c>
@@ -50253,7 +50251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="507" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>11141024</v>
       </c>
@@ -50339,7 +50337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="508" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>11141026</v>
       </c>
@@ -50425,7 +50423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="509" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>11141028</v>
       </c>
@@ -50511,7 +50509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="510" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>11141032</v>
       </c>
@@ -50597,7 +50595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="511" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>11141036</v>
       </c>
@@ -50683,7 +50681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="512" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>11141040</v>
       </c>
@@ -50769,7 +50767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="513" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>11141042</v>
       </c>
@@ -50855,7 +50853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="514" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>11141048</v>
       </c>
@@ -50941,7 +50939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="515" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>11142457</v>
       </c>
@@ -51027,7 +51025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="516" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>11142916</v>
       </c>
@@ -51113,7 +51111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="517" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>11143484</v>
       </c>
@@ -51199,7 +51197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="518" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>11143485</v>
       </c>
@@ -51285,7 +51283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="519" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>11143486</v>
       </c>
@@ -51371,7 +51369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="520" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>11143488</v>
       </c>
@@ -51457,7 +51455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="521" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>11143489</v>
       </c>
@@ -51543,7 +51541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="522" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>11143493</v>
       </c>
@@ -51629,7 +51627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="523" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>11143494</v>
       </c>
@@ -51715,7 +51713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="524" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>11143495</v>
       </c>
@@ -51801,7 +51799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="525" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>11143496</v>
       </c>
@@ -51887,7 +51885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="526" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>11143499</v>
       </c>
@@ -51973,7 +51971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="527" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>11143503</v>
       </c>
@@ -52059,7 +52057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="528" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>11143504</v>
       </c>
@@ -52145,7 +52143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="529" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>11143505</v>
       </c>
@@ -52231,7 +52229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="530" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>11143506</v>
       </c>
@@ -52317,7 +52315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="531" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>11143507</v>
       </c>
@@ -52403,7 +52401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="532" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>11143508</v>
       </c>
@@ -52489,7 +52487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="533" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>11143509</v>
       </c>
@@ -52575,7 +52573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="534" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>11143510</v>
       </c>
@@ -52661,7 +52659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="535" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>11143511</v>
       </c>
@@ -52747,7 +52745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="536" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>11143512</v>
       </c>
@@ -52833,7 +52831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="537" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>11143513</v>
       </c>
@@ -52919,7 +52917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="538" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>11143514</v>
       </c>
@@ -53005,7 +53003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="539" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>11143515</v>
       </c>
@@ -53091,7 +53089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="540" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>11143516</v>
       </c>
@@ -53177,7 +53175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="541" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>11143517</v>
       </c>
@@ -53263,7 +53261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="542" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>11143519</v>
       </c>
@@ -53349,7 +53347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="543" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>11143520</v>
       </c>
@@ -53435,7 +53433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="544" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>11143521</v>
       </c>
@@ -53521,7 +53519,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="545" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>11143522</v>
       </c>
@@ -53607,7 +53605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="546" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>11143523</v>
       </c>
@@ -53693,7 +53691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="547" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>11143546</v>
       </c>
@@ -53779,7 +53777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="548" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>11143551</v>
       </c>
@@ -53865,7 +53863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="549" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>11143554</v>
       </c>
@@ -53951,7 +53949,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="550" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>11143556</v>
       </c>
@@ -54037,7 +54035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="551" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>11143557</v>
       </c>
@@ -54123,7 +54121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="552" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>11143558</v>
       </c>
@@ -54209,7 +54207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="553" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>11143561</v>
       </c>
@@ -54295,7 +54293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="554" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>11143564</v>
       </c>
@@ -54381,7 +54379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="555" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>11143566</v>
       </c>
@@ -54467,7 +54465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="556" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>11143567</v>
       </c>
@@ -54553,7 +54551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="557" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>11143581</v>
       </c>
@@ -54639,7 +54637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="558" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>11143584</v>
       </c>
@@ -54725,7 +54723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="559" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>11143585</v>
       </c>
@@ -54811,7 +54809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="560" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>11143596</v>
       </c>
@@ -54897,7 +54895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="561" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>11143631</v>
       </c>
@@ -54983,7 +54981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="562" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>11143633</v>
       </c>
@@ -55069,7 +55067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="563" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>11143637</v>
       </c>
@@ -55155,7 +55153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="564" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>11143639</v>
       </c>
@@ -55241,7 +55239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="565" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>11143641</v>
       </c>
@@ -55327,7 +55325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="566" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>11143644</v>
       </c>
@@ -55413,7 +55411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="567" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>11143645</v>
       </c>
@@ -55499,7 +55497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="568" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>11143649</v>
       </c>
@@ -55585,7 +55583,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="569" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>11143651</v>
       </c>
@@ -55671,7 +55669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="570" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>11143652</v>
       </c>
@@ -55757,7 +55755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="571" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>11143654</v>
       </c>
@@ -55843,7 +55841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>11143657</v>
       </c>
@@ -55929,7 +55927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="573" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>11143658</v>
       </c>
@@ -56015,7 +56013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="574" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>11143660</v>
       </c>
@@ -56101,7 +56099,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="575" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>11143661</v>
       </c>
@@ -56187,7 +56185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="576" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>11143662</v>
       </c>
@@ -56273,7 +56271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="577" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>11143668</v>
       </c>
@@ -56359,7 +56357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="578" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>11143670</v>
       </c>
@@ -56445,7 +56443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="579" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>11143672</v>
       </c>
@@ -56531,7 +56529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="580" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>11143675</v>
       </c>
@@ -56617,7 +56615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="581" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>11143678</v>
       </c>
@@ -56703,7 +56701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="582" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>11143683</v>
       </c>
@@ -56789,7 +56787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="583" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>11143685</v>
       </c>
@@ -56875,7 +56873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="584" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>11143686</v>
       </c>
@@ -56961,7 +56959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="585" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>11143688</v>
       </c>
@@ -57047,7 +57045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="586" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>11143694</v>
       </c>
@@ -57133,7 +57131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="587" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>11143697</v>
       </c>
@@ -57219,7 +57217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="588" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>11143701</v>
       </c>
@@ -57305,7 +57303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="589" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>11143709</v>
       </c>
@@ -57391,7 +57389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="590" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>11143712</v>
       </c>
@@ -57477,7 +57475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="591" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>11143715</v>
       </c>
@@ -57563,7 +57561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="592" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>11143720</v>
       </c>
@@ -57649,7 +57647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="593" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>11143722</v>
       </c>
@@ -57735,7 +57733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="594" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>11143724</v>
       </c>
@@ -57821,7 +57819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="595" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>11143732</v>
       </c>
@@ -57907,7 +57905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="596" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>11143733</v>
       </c>
@@ -57993,7 +57991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="597" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>11143734</v>
       </c>
@@ -58079,7 +58077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="598" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>11143740</v>
       </c>
@@ -58165,7 +58163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="599" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>11143742</v>
       </c>
@@ -58251,7 +58249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="600" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>11143962</v>
       </c>
@@ -58337,7 +58335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="601" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>11143963</v>
       </c>
@@ -58423,7 +58421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="602" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>11143964</v>
       </c>
@@ -58509,7 +58507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="603" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>11143965</v>
       </c>
@@ -58595,7 +58593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="604" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>11143966</v>
       </c>
@@ -58681,7 +58679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="605" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>11143977</v>
       </c>
@@ -58767,7 +58765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="606" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>11143978</v>
       </c>
@@ -58853,7 +58851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="607" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>11143980</v>
       </c>
@@ -58939,7 +58937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="608" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>11143981</v>
       </c>
@@ -59025,7 +59023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>11143982</v>
       </c>
@@ -59111,7 +59109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="610" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>11143983</v>
       </c>
@@ -59197,7 +59195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="611" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>11143985</v>
       </c>
@@ -59283,7 +59281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="612" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>11143986</v>
       </c>
@@ -59369,7 +59367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="613" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>11143987</v>
       </c>
@@ -59455,7 +59453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="614" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>11143988</v>
       </c>
@@ -59541,7 +59539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="615" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>11143989</v>
       </c>
@@ -59627,7 +59625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="616" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>11144017</v>
       </c>
@@ -59713,7 +59711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="617" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>11144021</v>
       </c>
@@ -59799,7 +59797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="618" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>11144022</v>
       </c>
@@ -59885,7 +59883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="619" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>11144023</v>
       </c>
@@ -59971,7 +59969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="620" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>11144025</v>
       </c>
@@ -60057,7 +60055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="621" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>11144026</v>
       </c>
@@ -60143,7 +60141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="622" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>11144027</v>
       </c>
@@ -60229,7 +60227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="623" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>11144028</v>
       </c>
@@ -60315,7 +60313,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="624" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>11144030</v>
       </c>
@@ -60401,7 +60399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="625" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>11144032</v>
       </c>
@@ -60487,7 +60485,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="626" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>11144033</v>
       </c>
@@ -60573,7 +60571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="627" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>11144035</v>
       </c>
@@ -60659,7 +60657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="628" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>11144036</v>
       </c>
@@ -60745,7 +60743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="629" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>11144038</v>
       </c>
@@ -60831,7 +60829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="630" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>11144039</v>
       </c>
@@ -60917,7 +60915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="631" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>11144041</v>
       </c>
@@ -61003,7 +61001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="632" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>11144043</v>
       </c>
@@ -61089,7 +61087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="633" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>11144045</v>
       </c>
@@ -61175,7 +61173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="634" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>11144046</v>
       </c>
@@ -61261,7 +61259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="635" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>11144047</v>
       </c>
@@ -61347,7 +61345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="636" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>11144050</v>
       </c>
@@ -61433,7 +61431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="637" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>11144051</v>
       </c>
@@ -61519,7 +61517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="638" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>11144052</v>
       </c>
@@ -61605,7 +61603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="639" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>11144053</v>
       </c>
@@ -61691,7 +61689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="640" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>11144054</v>
       </c>
@@ -61777,7 +61775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="641" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>11144055</v>
       </c>
@@ -61863,7 +61861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="642" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>11144056</v>
       </c>
@@ -61949,7 +61947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="643" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>11144057</v>
       </c>
@@ -62035,7 +62033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="644" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>11144062</v>
       </c>
@@ -62121,7 +62119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="645" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>11144066</v>
       </c>
@@ -62207,7 +62205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="646" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>11144067</v>
       </c>
@@ -62293,7 +62291,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="647" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>11144071</v>
       </c>
@@ -62379,7 +62377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="648" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>11144122</v>
       </c>
@@ -62465,7 +62463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="649" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>11144123</v>
       </c>
@@ -62551,7 +62549,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="650" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>11144125</v>
       </c>
@@ -62637,7 +62635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="651" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>11144129</v>
       </c>
@@ -62723,7 +62721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="652" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>11144131</v>
       </c>
@@ -62809,7 +62807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="653" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>11144914</v>
       </c>
@@ -62895,7 +62893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="654" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>11144917</v>
       </c>
@@ -62981,7 +62979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="655" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>11146835</v>
       </c>
@@ -63067,7 +63065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="656" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>11147056</v>
       </c>
@@ -63153,7 +63151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="657" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>11147066</v>
       </c>
@@ -63239,7 +63237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="658" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>11147067</v>
       </c>
@@ -63325,7 +63323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="659" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>11147069</v>
       </c>
@@ -63411,7 +63409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="660" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>11147070</v>
       </c>
@@ -63497,7 +63495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="661" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>11147071</v>
       </c>
@@ -63583,7 +63581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="662" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>11147073</v>
       </c>
@@ -63669,7 +63667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="663" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>11147103</v>
       </c>
@@ -63755,7 +63753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="664" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>11147104</v>
       </c>
@@ -63841,7 +63839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="665" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>11147105</v>
       </c>
@@ -63927,7 +63925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="666" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>11147108</v>
       </c>
@@ -64013,7 +64011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="667" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>11147109</v>
       </c>
@@ -64099,7 +64097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="668" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>11147505</v>
       </c>
@@ -64185,7 +64183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="669" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>11147506</v>
       </c>
@@ -64271,7 +64269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="670" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>11147510</v>
       </c>
@@ -64357,7 +64355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="671" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>11147515</v>
       </c>
@@ -64443,7 +64441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="672" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>11147576</v>
       </c>
@@ -64529,7 +64527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="673" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>11148099</v>
       </c>
@@ -64615,7 +64613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="674" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>11150620</v>
       </c>
@@ -64701,7 +64699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="675" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>11150621</v>
       </c>
@@ -64787,7 +64785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="676" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>11150622</v>
       </c>
@@ -64873,7 +64871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="677" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>11150623</v>
       </c>
@@ -64959,7 +64957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="678" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>11150624</v>
       </c>
@@ -65045,7 +65043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="679" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>11150625</v>
       </c>
@@ -65131,7 +65129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="680" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>11150626</v>
       </c>
@@ -65217,7 +65215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="681" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>11150627</v>
       </c>
@@ -65303,7 +65301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="682" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>11150628</v>
       </c>
@@ -65389,7 +65387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="683" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>11150629</v>
       </c>
@@ -65475,7 +65473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="684" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>11150630</v>
       </c>
@@ -65561,7 +65559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="685" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>11150631</v>
       </c>
@@ -65647,7 +65645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="686" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>11150632</v>
       </c>
@@ -65733,7 +65731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="687" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>11151481</v>
       </c>
@@ -65819,7 +65817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="688" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>11151741</v>
       </c>
@@ -65905,7 +65903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="689" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>11154388</v>
       </c>
@@ -65991,7 +65989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="690" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>11154654</v>
       </c>
@@ -66077,7 +66075,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="691" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>11155108</v>
       </c>
@@ -66163,7 +66161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="692" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>11155109</v>
       </c>
@@ -66249,7 +66247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="693" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>11155112</v>
       </c>
@@ -66335,7 +66333,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="694" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>11155113</v>
       </c>
@@ -66421,7 +66419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="695" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>11155142</v>
       </c>
@@ -66507,7 +66505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="696" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>11155151</v>
       </c>
@@ -66593,7 +66591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="697" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>11155242</v>
       </c>
@@ -66679,7 +66677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="698" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>11155247</v>
       </c>
@@ -66765,7 +66763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="699" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>11155255</v>
       </c>
@@ -66851,7 +66849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="700" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>11155257</v>
       </c>
@@ -66937,7 +66935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="701" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>11155282</v>
       </c>
@@ -67023,7 +67021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="702" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>11155285</v>
       </c>
@@ -67109,7 +67107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="703" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>11155866</v>
       </c>
@@ -67195,7 +67193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="704" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>11155867</v>
       </c>
@@ -67281,7 +67279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="705" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>11155868</v>
       </c>
@@ -67367,7 +67365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="706" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>11156354</v>
       </c>
@@ -67453,7 +67451,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="707" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>11158932</v>
       </c>
@@ -67539,7 +67537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="708" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>11158948</v>
       </c>
@@ -67625,7 +67623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="709" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>11159002</v>
       </c>
@@ -67711,7 +67709,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="710" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>11159006</v>
       </c>
@@ -67797,7 +67795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="711" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>11159010</v>
       </c>
@@ -67883,7 +67881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="712" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>11159012</v>
       </c>
@@ -67969,7 +67967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="713" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>11159014</v>
       </c>
@@ -68055,7 +68053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="714" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>11159017</v>
       </c>
@@ -68141,7 +68139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="715" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>11159021</v>
       </c>
@@ -68227,7 +68225,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="716" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>11159023</v>
       </c>
@@ -68313,7 +68311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="717" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>11159025</v>
       </c>
@@ -68399,7 +68397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="718" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>11159032</v>
       </c>
@@ -68485,7 +68483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="719" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>11159034</v>
       </c>
@@ -68571,7 +68569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="720" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>11159036</v>
       </c>
@@ -68657,7 +68655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="721" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>11159131</v>
       </c>
@@ -68743,7 +68741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="722" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>11159132</v>
       </c>
@@ -68829,7 +68827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="723" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>11159144</v>
       </c>
@@ -68915,7 +68913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="724" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>11159162</v>
       </c>
@@ -69001,7 +68999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="725" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>11159166</v>
       </c>
@@ -69087,7 +69085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="726" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>11159168</v>
       </c>
@@ -69173,7 +69171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="727" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>11160395</v>
       </c>
@@ -69259,7 +69257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="728" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>11160400</v>
       </c>
@@ -69345,7 +69343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="729" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>11160996</v>
       </c>
@@ -69431,7 +69429,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="730" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>11162933</v>
       </c>
@@ -69517,7 +69515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="731" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>11162934</v>
       </c>
@@ -69603,7 +69601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="732" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>11162936</v>
       </c>
@@ -69689,7 +69687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="733" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>11162938</v>
       </c>
@@ -69775,7 +69773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="734" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>11162942</v>
       </c>
@@ -69861,7 +69859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="735" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>11162944</v>
       </c>
@@ -69947,7 +69945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="736" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>11162946</v>
       </c>
@@ -70033,7 +70031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="737" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>11162948</v>
       </c>
@@ -70119,7 +70117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="738" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>11162953</v>
       </c>
@@ -70205,7 +70203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="739" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>11162957</v>
       </c>
@@ -70291,7 +70289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="740" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>11162958</v>
       </c>
@@ -70377,7 +70375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="741" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>11162959</v>
       </c>
@@ -70463,7 +70461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="742" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>11162961</v>
       </c>
@@ -70549,7 +70547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="743" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>11162966</v>
       </c>
@@ -70635,7 +70633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="744" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>11163000</v>
       </c>
@@ -70721,7 +70719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="745" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>11163002</v>
       </c>
@@ -70807,7 +70805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="746" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>11163004</v>
       </c>
@@ -70893,7 +70891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="747" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>11163016</v>
       </c>
@@ -70979,7 +70977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="748" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>11163019</v>
       </c>
@@ -71065,7 +71063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="749" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>11163021</v>
       </c>
@@ -71151,7 +71149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="750" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>11164690</v>
       </c>
@@ -71237,7 +71235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="751" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>11165385</v>
       </c>
@@ -71323,7 +71321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="752" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>11165734</v>
       </c>
@@ -71409,7 +71407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="753" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>11165741</v>
       </c>
@@ -71495,7 +71493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="754" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>11166794</v>
       </c>
@@ -71581,7 +71579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="755" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>11166797</v>
       </c>
@@ -71667,7 +71665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="756" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>11166798</v>
       </c>
@@ -71753,7 +71751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>11166800</v>
       </c>
@@ -71839,7 +71837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="758" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>11166801</v>
       </c>
@@ -71925,7 +71923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="759" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>11166821</v>
       </c>
@@ -72011,7 +72009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="760" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>11166822</v>
       </c>
@@ -72097,7 +72095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="761" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>11166826</v>
       </c>
@@ -72183,7 +72181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="762" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>11166828</v>
       </c>
@@ -72269,7 +72267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="763" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>11166846</v>
       </c>
@@ -72355,7 +72353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="764" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>11166852</v>
       </c>
@@ -72441,7 +72439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="765" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>11166854</v>
       </c>
@@ -72527,7 +72525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="766" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>11166856</v>
       </c>
@@ -72613,7 +72611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="767" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>11166875</v>
       </c>
@@ -72699,7 +72697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="768" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>11166880</v>
       </c>
@@ -72785,7 +72783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="769" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>11166897</v>
       </c>
@@ -72871,7 +72869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="770" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>11166902</v>
       </c>
@@ -72957,7 +72955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="771" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>11166905</v>
       </c>
@@ -73043,7 +73041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="772" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>11166906</v>
       </c>
@@ -73129,7 +73127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="773" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>11166912</v>
       </c>
@@ -73215,7 +73213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="774" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>11167119</v>
       </c>
@@ -73301,7 +73299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="775" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>11167343</v>
       </c>
@@ -73387,7 +73385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="776" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>11167516</v>
       </c>
@@ -73473,7 +73471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="777" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>11168568</v>
       </c>
@@ -73559,7 +73557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="778" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>11168621</v>
       </c>
@@ -73645,7 +73643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="779" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>11168624</v>
       </c>
@@ -73731,7 +73729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="780" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>11168631</v>
       </c>
@@ -73817,7 +73815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="781" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>11168633</v>
       </c>
@@ -73903,7 +73901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="782" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>11168635</v>
       </c>
@@ -73989,7 +73987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="783" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>11168806</v>
       </c>
@@ -74075,7 +74073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="784" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>11168807</v>
       </c>
@@ -74161,7 +74159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="785" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>11168808</v>
       </c>
@@ -74247,7 +74245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="786" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>11168809</v>
       </c>
@@ -74333,7 +74331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="787" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>11168819</v>
       </c>
@@ -74419,7 +74417,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="788" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>11168820</v>
       </c>
@@ -74505,7 +74503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="789" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>11168822</v>
       </c>
@@ -74591,7 +74589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="790" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>11168823</v>
       </c>
@@ -74677,7 +74675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="791" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>11168825</v>
       </c>
@@ -74763,7 +74761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="792" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>11168828</v>
       </c>
@@ -74849,7 +74847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="793" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>11168982</v>
       </c>
@@ -74935,7 +74933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>11169379</v>
       </c>
@@ -75021,7 +75019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="795" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>11170141</v>
       </c>
@@ -75107,7 +75105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="796" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>11172399</v>
       </c>
@@ -75193,7 +75191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="797" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>11172400</v>
       </c>
@@ -75279,7 +75277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="798" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>11172403</v>
       </c>
@@ -75365,7 +75363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="799" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>11172405</v>
       </c>
@@ -75451,7 +75449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="800" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>11172406</v>
       </c>
@@ -75537,7 +75535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="801" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>11172407</v>
       </c>
@@ -75623,7 +75621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="802" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>11172409</v>
       </c>
@@ -75709,7 +75707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="803" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>11172413</v>
       </c>
@@ -75795,7 +75793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="804" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>11172415</v>
       </c>
@@ -75881,7 +75879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="805" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>11172416</v>
       </c>
@@ -75967,7 +75965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="806" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>11172736</v>
       </c>
@@ -76053,7 +76051,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="807" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>11172953</v>
       </c>
@@ -76139,7 +76137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="808" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>11172954</v>
       </c>
@@ -76225,7 +76223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="809" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>11173276</v>
       </c>
@@ -76311,7 +76309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="810" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>11175532</v>
       </c>
@@ -76397,7 +76395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="811" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>11175593</v>
       </c>
@@ -76483,7 +76481,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="812" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>11175595</v>
       </c>
@@ -76569,7 +76567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="813" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>11175596</v>
       </c>
@@ -76655,7 +76653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="814" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>11175603</v>
       </c>
@@ -76741,7 +76739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="815" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>11175605</v>
       </c>
@@ -76827,7 +76825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="816" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>11175606</v>
       </c>
@@ -76913,7 +76911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="817" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>11175608</v>
       </c>
@@ -76999,7 +76997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="818" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>11175610</v>
       </c>
@@ -77085,7 +77083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="819" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>11175611</v>
       </c>
@@ -77171,7 +77169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="820" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>11175612</v>
       </c>
@@ -77257,7 +77255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="821" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>11175614</v>
       </c>
@@ -77343,7 +77341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="822" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>11175615</v>
       </c>
@@ -77429,7 +77427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="823" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>11175616</v>
       </c>
@@ -77515,7 +77513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="824" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>11178254</v>
       </c>
@@ -77601,7 +77599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="825" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>11178258</v>
       </c>
@@ -77687,7 +77685,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="826" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>11178265</v>
       </c>
@@ -77773,7 +77771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="827" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>11178267</v>
       </c>
@@ -77859,7 +77857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="828" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>11178268</v>
       </c>
@@ -77945,7 +77943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="829" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>11178269</v>
       </c>
@@ -78031,7 +78029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="830" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>11178271</v>
       </c>
@@ -78117,7 +78115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="831" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>11178272</v>
       </c>
@@ -78203,7 +78201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="832" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>11178273</v>
       </c>
@@ -78289,7 +78287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="833" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>11178274</v>
       </c>
@@ -78375,7 +78373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="834" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>11178275</v>
       </c>
@@ -78461,7 +78459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="835" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>11180200</v>
       </c>
@@ -78547,7 +78545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="836" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>11180203</v>
       </c>
@@ -78633,7 +78631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="837" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>11180204</v>
       </c>
@@ -78719,7 +78717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="838" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>11180206</v>
       </c>
@@ -78805,7 +78803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="839" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>11180208</v>
       </c>
@@ -78891,7 +78889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="840" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>11180215</v>
       </c>
@@ -78977,7 +78975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="841" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>11183064</v>
       </c>
@@ -79063,7 +79061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="842" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>11183807</v>
       </c>
@@ -79149,7 +79147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="843" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>11187583</v>
       </c>
@@ -79235,7 +79233,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="844" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>11188054</v>
       </c>
@@ -79321,7 +79319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="845" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>11188056</v>
       </c>
@@ -79407,7 +79405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="846" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>11188057</v>
       </c>
@@ -79493,7 +79491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="847" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>11188059</v>
       </c>
@@ -79579,7 +79577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="848" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>11188060</v>
       </c>
@@ -79665,7 +79663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="849" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>11188061</v>
       </c>
@@ -79751,7 +79749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="850" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>11188062</v>
       </c>
@@ -79837,7 +79835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="851" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>11188063</v>
       </c>
@@ -79923,7 +79921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="852" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>11188064</v>
       </c>
@@ -80009,7 +80007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="853" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>11188068</v>
       </c>
@@ -80095,7 +80093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="854" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>11188070</v>
       </c>
@@ -80181,7 +80179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="855" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>11188071</v>
       </c>
@@ -80267,7 +80265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="856" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>11188073</v>
       </c>
@@ -80353,7 +80351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="857" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>11188130</v>
       </c>
@@ -80439,7 +80437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="858" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>11188561</v>
       </c>
@@ -80525,7 +80523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="859" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>11190098</v>
       </c>
@@ -80611,7 +80609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="860" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>11190535</v>
       </c>
@@ -80697,7 +80695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="861" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>11190537</v>
       </c>
@@ -80783,7 +80781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="862" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>11190538</v>
       </c>
@@ -80869,7 +80867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="863" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>11190539</v>
       </c>
@@ -80955,7 +80953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="864" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>11190540</v>
       </c>
@@ -81041,7 +81039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="865" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>11190542</v>
       </c>
@@ -81127,7 +81125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="866" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>11190544</v>
       </c>
@@ -81213,7 +81211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="867" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>11190547</v>
       </c>
@@ -81299,7 +81297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="868" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>11190548</v>
       </c>
@@ -81385,7 +81383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="869" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>11190550</v>
       </c>
@@ -81471,7 +81469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="870" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>11190553</v>
       </c>
@@ -81557,7 +81555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="871" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>11190811</v>
       </c>
@@ -81643,7 +81641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="872" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>11191746</v>
       </c>
@@ -81729,7 +81727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="873" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>11191749</v>
       </c>
@@ -81815,7 +81813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="874" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>11191750</v>
       </c>
@@ -81901,7 +81899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="875" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>11193444</v>
       </c>
@@ -81987,7 +81985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="876" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>11193445</v>
       </c>
@@ -82073,7 +82071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="877" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>11193446</v>
       </c>
@@ -82159,7 +82157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="878" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>11193447</v>
       </c>
@@ -82245,7 +82243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="879" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>11193448</v>
       </c>
@@ -82331,7 +82329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="880" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>11193449</v>
       </c>
@@ -82417,7 +82415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="881" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>11193450</v>
       </c>
@@ -82503,7 +82501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="882" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>11193451</v>
       </c>
@@ -82589,7 +82587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="883" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>11193452</v>
       </c>
@@ -82675,7 +82673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="884" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>11193453</v>
       </c>
@@ -82761,7 +82759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="885" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>11193454</v>
       </c>
@@ -82847,7 +82845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="886" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>11193477</v>
       </c>
@@ -82933,7 +82931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="887" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>11193482</v>
       </c>
@@ -83019,7 +83017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="888" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>11194047</v>
       </c>
@@ -83105,7 +83103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="889" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>11194315</v>
       </c>
@@ -83191,7 +83189,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="890" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>11196025</v>
       </c>
@@ -83277,7 +83275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="891" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>11196268</v>
       </c>
@@ -83363,7 +83361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="892" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>11196273</v>
       </c>
@@ -83449,7 +83447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="893" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>11196284</v>
       </c>
@@ -83535,7 +83533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="894" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>11196287</v>
       </c>
@@ -83621,7 +83619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="895" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>11196290</v>
       </c>
@@ -83707,7 +83705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="896" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>11196296</v>
       </c>
@@ -83793,7 +83791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="897" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>11196996</v>
       </c>
@@ -83879,7 +83877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="898" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>11199632</v>
       </c>
@@ -83965,7 +83963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="899" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>11199633</v>
       </c>
@@ -84051,7 +84049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="900" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>11199634</v>
       </c>
@@ -84137,7 +84135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="901" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>11199635</v>
       </c>
@@ -84223,7 +84221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="902" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>11199636</v>
       </c>
@@ -84309,7 +84307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="903" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>11199637</v>
       </c>
@@ -84395,7 +84393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="904" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>11199638</v>
       </c>
@@ -84481,7 +84479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="905" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>11199639</v>
       </c>
@@ -84567,7 +84565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="906" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>11199640</v>
       </c>
@@ -84653,7 +84651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="907" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>11199642</v>
       </c>
@@ -84739,7 +84737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="908" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>11200061</v>
       </c>
@@ -84825,7 +84823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="909" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>11200193</v>
       </c>
@@ -84911,7 +84909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="910" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>11200210</v>
       </c>
@@ -84997,7 +84995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="911" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>11202119</v>
       </c>
@@ -85083,7 +85081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="912" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>11202121</v>
       </c>
@@ -85169,7 +85167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="913" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>11202122</v>
       </c>
@@ -85255,7 +85253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="914" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>11202123</v>
       </c>
@@ -85341,7 +85339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="915" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>11202124</v>
       </c>
@@ -85427,7 +85425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="916" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>11202126</v>
       </c>
@@ -85513,7 +85511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="917" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>11202128</v>
       </c>
@@ -85599,7 +85597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="918" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>11202129</v>
       </c>
@@ -85685,7 +85683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="919" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>11202131</v>
       </c>
@@ -85771,7 +85769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="920" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>11203211</v>
       </c>
@@ -85857,7 +85855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="921" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>11203214</v>
       </c>
@@ -85943,7 +85941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="922" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>11204385</v>
       </c>
@@ -86029,7 +86027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="923" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>11205458</v>
       </c>
@@ -86115,7 +86113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="924" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>11205459</v>
       </c>
@@ -86201,7 +86199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="925" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>11205462</v>
       </c>
@@ -86287,7 +86285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="926" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>11205463</v>
       </c>
@@ -86373,7 +86371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="927" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>11205464</v>
       </c>
@@ -86459,7 +86457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="928" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>11205465</v>
       </c>
@@ -86545,7 +86543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="929" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>11205466</v>
       </c>
@@ -86631,7 +86629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="930" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>11205468</v>
       </c>
@@ -86717,7 +86715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="931" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>11205469</v>
       </c>
@@ -86803,7 +86801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="932" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>11205470</v>
       </c>
@@ -86889,7 +86887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="933" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>11205471</v>
       </c>
@@ -86975,7 +86973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="934" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>11205474</v>
       </c>
@@ -87061,7 +87059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="935" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>11205475</v>
       </c>
@@ -87147,7 +87145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="936" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>11205476</v>
       </c>
@@ -87233,7 +87231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="937" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>11205477</v>
       </c>
@@ -87319,7 +87317,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="938" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>11205479</v>
       </c>
@@ -87405,7 +87403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="939" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>11205481</v>
       </c>
@@ -87491,7 +87489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="940" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>11205687</v>
       </c>
@@ -87577,7 +87575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="941" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>11205717</v>
       </c>
@@ -87663,7 +87661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="942" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>11205719</v>
       </c>
@@ -87749,7 +87747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="943" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>11211154</v>
       </c>
@@ -87835,7 +87833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="944" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>11211156</v>
       </c>
@@ -87921,7 +87919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="945" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>11211157</v>
       </c>
@@ -88007,7 +88005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="946" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>11211161</v>
       </c>
@@ -88093,7 +88091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="947" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>11211165</v>
       </c>
@@ -88179,7 +88177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="948" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>11211167</v>
       </c>
@@ -88265,7 +88263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="949" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>11211168</v>
       </c>
@@ -88351,7 +88349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="950" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>11211170</v>
       </c>
@@ -88437,7 +88435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="951" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>11211172</v>
       </c>
@@ -88523,7 +88521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="952" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>11211175</v>
       </c>
@@ -88609,7 +88607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="953" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>11211177</v>
       </c>
@@ -88695,7 +88693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="954" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>11211178</v>
       </c>
@@ -88781,7 +88779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="955" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>11211180</v>
       </c>
@@ -88867,7 +88865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="956" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>11211190</v>
       </c>
@@ -88953,7 +88951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="957" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>11212470</v>
       </c>
@@ -89039,7 +89037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="958" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>11212471</v>
       </c>
@@ -89125,7 +89123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="959" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>11212899</v>
       </c>
@@ -89211,7 +89209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="960" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>11212905</v>
       </c>
@@ -89297,7 +89295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="961" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>11214628</v>
       </c>
@@ -89383,7 +89381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="962" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>11214666</v>
       </c>
@@ -89469,7 +89467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="963" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>11214667</v>
       </c>
@@ -89555,7 +89553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="964" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>11214669</v>
       </c>
@@ -89641,7 +89639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="965" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>11214670</v>
       </c>
@@ -89727,7 +89725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="966" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>11214673</v>
       </c>
@@ -89813,7 +89811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="967" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>11214674</v>
       </c>
@@ -89899,7 +89897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="968" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>11214678</v>
       </c>
@@ -89985,7 +89983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="969" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>11215592</v>
       </c>
@@ -90071,7 +90069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="970" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>11215593</v>
       </c>
@@ -90157,7 +90155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="971" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>11215594</v>
       </c>
@@ -90243,7 +90241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="972" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>11215595</v>
       </c>
@@ -90329,7 +90327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="973" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>11215596</v>
       </c>
@@ -90415,7 +90413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="974" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>11215597</v>
       </c>
@@ -90501,7 +90499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="975" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>11215598</v>
       </c>
@@ -90587,7 +90585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="976" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>11216597</v>
       </c>
@@ -90673,7 +90671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="977" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>11216599</v>
       </c>
@@ -90759,7 +90757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="978" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>11218651</v>
       </c>
@@ -90845,7 +90843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="979" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>11218654</v>
       </c>
@@ -90931,7 +90929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="980" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>11218657</v>
       </c>
@@ -91017,7 +91015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="981" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>11218660</v>
       </c>
@@ -91103,7 +91101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="982" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>11218663</v>
       </c>
@@ -91189,7 +91187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="983" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>11218668</v>
       </c>
@@ -91275,7 +91273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="984" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>11218670</v>
       </c>
@@ -91361,7 +91359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="985" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>11218671</v>
       </c>
@@ -91447,7 +91445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="986" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>11218672</v>
       </c>
@@ -91533,7 +91531,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="987" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>11218674</v>
       </c>
@@ -91619,7 +91617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="988" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>11218675</v>
       </c>
@@ -91705,7 +91703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="989" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>11218906</v>
       </c>
